--- a/xlsx_template/phieu_mau.xlsx
+++ b/xlsx_template/phieu_mau.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tga\Downloads\xd_f371\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tga\Downloads\xd_f371\xlsx_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="phieu_nhap" sheetId="1" r:id="rId1"/>
     <sheet name="phieu_xuat" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1000,6 +1001,135 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428876" y="962025"/>
+          <a:ext cx="1714500" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PHIẾU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> NHẬP</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485776</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2428876" y="2343150"/>
+          <a:ext cx="1714500" cy="809625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>PHIẾU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> XUẤT</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1267,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -2230,4 +2360,19 @@
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/xlsx_template/phieu_mau.xlsx
+++ b/xlsx_template/phieu_mau.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="phieu_nhap" sheetId="1" r:id="rId1"/>
     <sheet name="phieu_xuat" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -913,6 +912,50 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -929,60 +972,16 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1001,135 +1000,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2428876" y="962025"/>
-          <a:ext cx="1714500" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>PHIẾU</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> NHẬP</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>485776</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2428876" y="2343150"/>
-          <a:ext cx="1714500" cy="809625"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>PHIẾU</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> XUẤT</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1418,30 +1288,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="83" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="83"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="2:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1592,37 +1462,37 @@
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="88" t="s">
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="78" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="24" t="s">
         <v>28</v>
       </c>
@@ -1638,8 +1508,8 @@
       <c r="J12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="88"/>
-      <c r="L12" s="85"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26"/>
@@ -1748,31 +1618,31 @@
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80" t="s">
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80" t="s">
+      <c r="F20" s="84"/>
+      <c r="G20" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80" t="s">
+      <c r="H20" s="84"/>
+      <c r="I20" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="80"/>
-      <c r="K20" s="78" t="s">
+      <c r="J20" s="84"/>
+      <c r="K20" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="78"/>
+      <c r="L20" s="82"/>
     </row>
     <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="56"/>
@@ -1814,25 +1684,25 @@
       <c r="L23" s="64"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76" t="s">
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76" t="s">
+      <c r="H24" s="87"/>
+      <c r="I24" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77" t="s">
+      <c r="J24" s="87"/>
+      <c r="K24" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="77"/>
+      <c r="L24" s="88"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="65"/>
@@ -1849,6 +1719,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="K2:L2"/>
@@ -1860,17 +1741,6 @@
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi" error="Vui lòng chọn dữ liệu trong danh sách. (Add-in A-Tools Tác giả: Nguyễn Duy Tuân - http://bluesofts.net)" sqref="H4">
@@ -1887,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMJ25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1908,30 +1778,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="91" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="91"/>
+      <c r="L2" s="89"/>
     </row>
     <row r="3" spans="2:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2070,37 +1940,37 @@
       <c r="L10" s="16"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="85" t="s">
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="78" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
       <c r="F12" s="24" t="s">
         <v>28</v>
       </c>
@@ -2116,8 +1986,8 @@
       <c r="J12" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
     </row>
     <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="26"/>
@@ -2231,23 +2101,23 @@
       <c r="L19" s="90"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80" t="s">
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80" t="s">
+      <c r="F20" s="84"/>
+      <c r="G20" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80" t="s">
+      <c r="H20" s="84"/>
+      <c r="I20" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="80"/>
+      <c r="J20" s="84"/>
       <c r="K20" s="90" t="s">
         <v>43</v>
       </c>
@@ -2293,25 +2163,25 @@
       <c r="L23" s="64"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76" t="s">
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76" t="s">
+      <c r="H24" s="87"/>
+      <c r="I24" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="76"/>
-      <c r="K24" s="89" t="s">
+      <c r="J24" s="87"/>
+      <c r="K24" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="89"/>
+      <c r="L24" s="91"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="65"/>
@@ -2328,6 +2198,17 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="K2:L2"/>
@@ -2339,17 +2220,6 @@
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi" error="Vui lòng chọn dữ liệu trong danh sách. (Add-in A-Tools Tác giả: Nguyễn Duy Tuân - http://bluesofts.net)" sqref="H4">
@@ -2360,19 +2230,4 @@
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/xlsx_template/phieu_mau.xlsx
+++ b/xlsx_template/phieu_mau.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12930" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="phieu_nhap" sheetId="1" r:id="rId1"/>
@@ -676,9 +676,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -698,10 +695,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -714,9 +707,6 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -821,9 +811,6 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -836,16 +823,10 @@
     <xf numFmtId="3" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -861,9 +842,6 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -877,9 +855,6 @@
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -897,10 +872,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -912,6 +883,34 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -944,31 +943,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -976,12 +955,33 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1267,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMJ25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1283,35 +1283,35 @@
     <col min="8" max="9" width="11.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="22" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="2" customWidth="1"/>
     <col min="13" max="1024" width="9.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="76"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="2:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1319,138 +1319,138 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>2558</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="84"/>
     </row>
     <row r="5" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L5" s="16"/>
+      <c r="L5" s="86"/>
     </row>
     <row r="6" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="13"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="86"/>
     </row>
     <row r="8" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="86"/>
     </row>
     <row r="9" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="16"/>
-      <c r="P9" s="23"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="86"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1458,278 +1458,267 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="81" t="s">
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="79" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="24" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="2:16" ht="20.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="39">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36">
         <f>SUM(J13:J14)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
-      <c r="L15" s="39">
+      <c r="K15" s="37"/>
+      <c r="L15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="P16" s="23"/>
+      <c r="L16" s="87"/>
+      <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="51"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="88"/>
     </row>
     <row r="18" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="54"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="89"/>
     </row>
     <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84" t="s">
+      <c r="F20" s="71"/>
+      <c r="G20" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84" t="s">
+      <c r="H20" s="71"/>
+      <c r="I20" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="84"/>
-      <c r="K20" s="82" t="s">
+      <c r="J20" s="71"/>
+      <c r="K20" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="82"/>
+      <c r="L20" s="69"/>
     </row>
     <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="59"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="90"/>
     </row>
     <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="90"/>
     </row>
     <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="91"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="87" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87" t="s">
+      <c r="H24" s="67"/>
+      <c r="I24" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88" t="s">
+      <c r="J24" s="67"/>
+      <c r="K24" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="88"/>
+      <c r="L24" s="68"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="65"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="K2:L2"/>
@@ -1741,6 +1730,17 @@
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi" error="Vui lòng chọn dữ liệu trong danh sách. (Add-in A-Tools Tác giả: Nguyễn Duy Tuân - http://bluesofts.net)" sqref="H4">
@@ -1757,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AMJ25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1773,35 +1773,35 @@
     <col min="8" max="9" width="11.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22" style="2" customWidth="1"/>
     <col min="13" max="1024" width="9.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="31.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75" t="s">
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="89" t="s">
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="89"/>
+      <c r="L2" s="82"/>
     </row>
     <row r="3" spans="2:16" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1809,126 +1809,126 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="5"/>
+      <c r="L3" s="83"/>
     </row>
     <row r="4" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="8">
         <v>10</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="67"/>
-      <c r="L4" s="11"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="84"/>
     </row>
     <row r="5" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="85"/>
     </row>
     <row r="6" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="13"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="85"/>
     </row>
     <row r="7" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17"/>
       <c r="J7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K7" s="69"/>
-      <c r="L7" s="70"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="85"/>
     </row>
     <row r="8" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
       <c r="J8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="85"/>
     </row>
     <row r="9" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
       <c r="J9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="69"/>
-      <c r="L9" s="70"/>
-      <c r="P9" s="23"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="85"/>
+      <c r="P9" s="20"/>
     </row>
     <row r="10" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="7"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1936,279 +1936,268 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="16"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="86"/>
     </row>
     <row r="11" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="78" t="s">
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="79" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="48" x14ac:dyDescent="0.2">
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="24" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="25" t="s">
+      <c r="I12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="79"/>
     </row>
     <row r="13" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="P13" s="31"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="P13" s="28"/>
     </row>
     <row r="14" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="2:16" ht="20.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="73">
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="64">
         <f>SUM(J13:J14)</f>
         <v>0</v>
       </c>
-      <c r="K15" s="73"/>
-      <c r="L15" s="39">
+      <c r="K15" s="64"/>
+      <c r="L15" s="36">
         <f>SUM(L13:L14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:16" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="47" t="s">
+      <c r="F16" s="38"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="L16" s="46"/>
-      <c r="P16" s="23"/>
+      <c r="L16" s="87"/>
+      <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="51"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="88"/>
     </row>
     <row r="18" spans="2:12" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="54"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="89"/>
     </row>
     <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="81"/>
+      <c r="L19" s="81"/>
     </row>
     <row r="20" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="84" t="s">
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84" t="s">
+      <c r="F20" s="71"/>
+      <c r="G20" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84" t="s">
+      <c r="H20" s="71"/>
+      <c r="I20" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="84"/>
-      <c r="K20" s="90" t="s">
+      <c r="J20" s="71"/>
+      <c r="K20" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="90"/>
+      <c r="L20" s="81"/>
     </row>
     <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="59"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="90"/>
     </row>
     <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="59"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="90"/>
     </row>
     <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="64"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="91"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="87" t="s">
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87" t="s">
+      <c r="H24" s="67"/>
+      <c r="I24" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="87"/>
-      <c r="K24" s="91" t="s">
+      <c r="J24" s="67"/>
+      <c r="K24" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="L24" s="91"/>
+      <c r="L24" s="80"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="K2:L2"/>
@@ -2220,6 +2209,17 @@
     <mergeCell ref="F11:J11"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="L11:L12"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi" error="Vui lòng chọn dữ liệu trong danh sách. (Add-in A-Tools Tác giả: Nguyễn Duy Tuân - http://bluesofts.net)" sqref="H4">
@@ -2228,6 +2228,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>